--- a/documents/FIGURES FOR VZ.xlsx
+++ b/documents/FIGURES FOR VZ.xlsx
@@ -8,19 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barnie/Documents/DRUGS STORY &amp; ASSIGNMENT/DRUGS FOI FOR GITHUB/EXCEL SHEETS &amp; FOI RESPONSES/VIZ DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB976E6-82AE-2243-8181-1A9B5702F891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB960B0-3746-D84B-B261-86FE9335C0ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{0032D6DF-6F90-1F4C-A2A4-844455CB6AC2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{0032D6DF-6F90-1F4C-A2A4-844455CB6AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar charts of actual figures" sheetId="1" r:id="rId1"/>
     <sheet name="Year-on-year % change" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Year-on-year % change'!$A$138:$A$140</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Year-on-year % change'!$B$137</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Year-on-year % change'!$B$138:$B$140</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4723,7 +4718,7 @@
                   <c:v>4217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1472</c:v>
+                  <c:v>1530</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3608</c:v>
@@ -15698,8 +15693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6149C75B-1014-6048-9B5B-726EFC7960C2}">
   <dimension ref="A1:Z148"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44:U52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16031,7 +16026,7 @@
         <v>3608</v>
       </c>
       <c r="U31">
-        <v>1472</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -16201,7 +16196,7 @@
         <v>3792</v>
       </c>
       <c r="U45">
-        <v>1628</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -16418,7 +16413,7 @@
         <v>4217</v>
       </c>
       <c r="C89" s="5">
-        <v>1472</v>
+        <v>1530</v>
       </c>
       <c r="D89" s="5">
         <v>3608</v>
@@ -16601,8 +16596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9630C8FD-9455-534D-B48D-58A4DBFAB3DE}">
   <dimension ref="A1:T147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24:T32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16731,7 +16726,7 @@
         <v>10.6</v>
       </c>
       <c r="S11">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <v>5.0999999999999996</v>
@@ -16759,7 +16754,7 @@
         <v>-13</v>
       </c>
       <c r="S13">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="T13">
         <v>-40</v>
@@ -16821,7 +16816,7 @@
         <v>-13</v>
       </c>
       <c r="S25">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="T25">
         <v>-40</v>
@@ -16846,7 +16841,7 @@
         <v>14</v>
       </c>
       <c r="R27">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <v>10.4</v>
